--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,71 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>h_mean</t>
-  </si>
-  <si>
-    <t>h_sd</t>
-  </si>
-  <si>
-    <t>h_min</t>
-  </si>
-  <si>
-    <t>h_max</t>
-  </si>
-  <si>
-    <t>sys_mean</t>
-  </si>
-  <si>
-    <t>sys_sd</t>
-  </si>
-  <si>
-    <t>sys_min</t>
-  </si>
-  <si>
-    <t>sys_max</t>
-  </si>
-  <si>
-    <t>corr</t>
-  </si>
-  <si>
-    <t>wtkappa</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>kappa</t>
-  </si>
-  <si>
-    <t>exact_agr</t>
-  </si>
-  <si>
-    <t>adj_agr</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>RMSE</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>scale_trim</t>
-  </si>
-  <si>
-    <t>scale_trim_round</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,63 +366,99 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>h_mean</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>h_sd</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>h_min</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>h_max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sys_mean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sys_sd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sys_min</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sys_max</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>corr</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>wtkappa</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>exact_agr</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>adj_agr</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SMD</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>17</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -520,7 +491,7 @@
         <v>0.7801773732608226</v>
       </c>
       <c r="L2" t="n">
-        <v>0.782122905027933</v>
+        <v>0.7797696841910529</v>
       </c>
       <c r="M2" t="n">
         <v>0.5493203316759327</v>
@@ -535,15 +506,17 @@
         <v>84.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02324751973535285</v>
+        <v>-0.02351246133036713</v>
       </c>
       <c r="R2" t="n">
         <v>0.6189327249996216</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>18</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>scale_trim</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>200</v>
@@ -576,7 +549,7 @@
         <v>0.7801773732608226</v>
       </c>
       <c r="L3" t="n">
-        <v>0.782122905027933</v>
+        <v>0.7797696841910529</v>
       </c>
       <c r="M3" t="n">
         <v>0.5493203316759327</v>
@@ -591,15 +564,17 @@
         <v>84.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02324751973535285</v>
+        <v>-0.02351246133036713</v>
       </c>
       <c r="R3" t="n">
         <v>0.6189327249996216</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>19</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>scale_trim_round</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>200</v>
@@ -632,7 +607,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L4" t="n">
-        <v>0.782122905027933</v>
+        <v>0.7821229050279329</v>
       </c>
       <c r="M4" t="n">
         <v>0.5411764705882354</v>
@@ -647,7 +622,7 @@
         <v>99</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01054416404922412</v>
+        <v>0.01081937260331701</v>
       </c>
       <c r="R4" t="n">
         <v>0.6244997998398398</v>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
@@ -491,7 +491,7 @@
         <v>0.7801773732608226</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7797696841910529</v>
+        <v>0.7808705382933534</v>
       </c>
       <c r="M2" t="n">
         <v>0.5493203316759327</v>
@@ -506,7 +506,7 @@
         <v>84.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02351246133036713</v>
+        <v>0.02351246133036713</v>
       </c>
       <c r="R2" t="n">
         <v>0.6189327249996216</v>
@@ -549,7 +549,7 @@
         <v>0.7801773732608226</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7797696841910529</v>
+        <v>0.7808705382933534</v>
       </c>
       <c r="M3" t="n">
         <v>0.5493203316759327</v>
@@ -564,7 +564,7 @@
         <v>84.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.02351246133036713</v>
+        <v>0.02351246133036713</v>
       </c>
       <c r="R3" t="n">
         <v>0.6189327249996216</v>
@@ -607,7 +607,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7821229050279329</v>
+        <v>0.7832122299475502</v>
       </c>
       <c r="M4" t="n">
         <v>0.5411764705882354</v>
@@ -622,7 +622,7 @@
         <v>99</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01081937260331701</v>
+        <v>-0.01081937260331701</v>
       </c>
       <c r="R4" t="n">
         <v>0.6244997998398398</v>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,71 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>h_mean</t>
+  </si>
+  <si>
+    <t>h_sd</t>
+  </si>
+  <si>
+    <t>h_min</t>
+  </si>
+  <si>
+    <t>h_max</t>
+  </si>
+  <si>
+    <t>sys_mean</t>
+  </si>
+  <si>
+    <t>sys_sd</t>
+  </si>
+  <si>
+    <t>sys_min</t>
+  </si>
+  <si>
+    <t>sys_max</t>
+  </si>
+  <si>
+    <t>corr</t>
+  </si>
+  <si>
+    <t>wtkappa</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>kappa</t>
+  </si>
+  <si>
+    <t>exact_agr</t>
+  </si>
+  <si>
+    <t>adj_agr</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>scale_trim</t>
+  </si>
+  <si>
+    <t>scale_trim_round</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,99 +431,63 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>h_mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>h_sd</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>h_min</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>h_max</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sys_mean</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sys_sd</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sys_min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sys_max</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>corr</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>wtkappa</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>kappa</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>exact_agr</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>adj_agr</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>SMD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -491,7 +520,7 @@
         <v>0.7801773732608226</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7808705382933534</v>
+        <v>0.782122905027933</v>
       </c>
       <c r="M2" t="n">
         <v>0.5493203316759327</v>
@@ -506,17 +535,15 @@
         <v>84.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02351246133036713</v>
+        <v>0.02324751973535285</v>
       </c>
       <c r="R2" t="n">
         <v>0.6189327249996216</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>scale_trim</t>
-        </is>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>200</v>
@@ -549,7 +576,7 @@
         <v>0.7801773732608226</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7808705382933534</v>
+        <v>0.782122905027933</v>
       </c>
       <c r="M3" t="n">
         <v>0.5493203316759327</v>
@@ -564,17 +591,15 @@
         <v>84.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02351246133036713</v>
+        <v>0.02324751973535285</v>
       </c>
       <c r="R3" t="n">
         <v>0.6189327249996216</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>scale_trim_round</t>
-        </is>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>200</v>
@@ -607,7 +632,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7832122299475502</v>
+        <v>0.782122905027933</v>
       </c>
       <c r="M4" t="n">
         <v>0.5411764705882354</v>
@@ -622,7 +647,7 @@
         <v>99</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01081937260331701</v>
+        <v>-0.01054416404922412</v>
       </c>
       <c r="R4" t="n">
         <v>0.6244997998398398</v>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,71 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>h_mean</t>
-  </si>
-  <si>
-    <t>h_sd</t>
-  </si>
-  <si>
-    <t>h_min</t>
-  </si>
-  <si>
-    <t>h_max</t>
-  </si>
-  <si>
-    <t>sys_mean</t>
-  </si>
-  <si>
-    <t>sys_sd</t>
-  </si>
-  <si>
-    <t>sys_min</t>
-  </si>
-  <si>
-    <t>sys_max</t>
-  </si>
-  <si>
-    <t>corr</t>
-  </si>
-  <si>
-    <t>wtkappa</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>kappa</t>
-  </si>
-  <si>
-    <t>exact_agr</t>
-  </si>
-  <si>
-    <t>adj_agr</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>RMSE</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>scale_trim</t>
-  </si>
-  <si>
-    <t>scale_trim_round</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,63 +366,99 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>h_mean</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>h_sd</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>h_min</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>h_max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sys_mean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sys_sd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sys_min</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sys_max</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>corr</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>wtkappa</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>exact_agr</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>adj_agr</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SMD</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>17</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -520,7 +491,7 @@
         <v>0.7801773732608226</v>
       </c>
       <c r="L2" t="n">
-        <v>0.782122905027933</v>
+        <v>0.7808705382933534</v>
       </c>
       <c r="M2" t="n">
         <v>0.5493203316759327</v>
@@ -535,15 +506,17 @@
         <v>84.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02324751973535285</v>
+        <v>0.02351246133036713</v>
       </c>
       <c r="R2" t="n">
         <v>0.6189327249996216</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>18</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>scale_trim</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>200</v>
@@ -576,7 +549,7 @@
         <v>0.7801773732608226</v>
       </c>
       <c r="L3" t="n">
-        <v>0.782122905027933</v>
+        <v>0.7808705382933534</v>
       </c>
       <c r="M3" t="n">
         <v>0.5493203316759327</v>
@@ -591,15 +564,17 @@
         <v>84.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02324751973535285</v>
+        <v>0.02351246133036713</v>
       </c>
       <c r="R3" t="n">
         <v>0.6189327249996216</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>19</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>scale_trim_round</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>200</v>
@@ -632,7 +607,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L4" t="n">
-        <v>0.782122905027933</v>
+        <v>0.7832122299475502</v>
       </c>
       <c r="M4" t="n">
         <v>0.5411764705882354</v>
@@ -647,7 +622,7 @@
         <v>99</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01054416404922412</v>
+        <v>-0.01081937260331701</v>
       </c>
       <c r="R4" t="n">
         <v>0.6244997998398398</v>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
@@ -491,7 +491,7 @@
         <v>0.7801773732608226</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7808705382933534</v>
+        <v>0.7797696841910529</v>
       </c>
       <c r="M2" t="n">
         <v>0.5493203316759327</v>
@@ -549,7 +549,7 @@
         <v>0.7801773732608226</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7808705382933534</v>
+        <v>0.7797696841910529</v>
       </c>
       <c r="M3" t="n">
         <v>0.5493203316759327</v>
@@ -607,7 +607,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7832122299475502</v>
+        <v>0.7821229050279329</v>
       </c>
       <c r="M4" t="n">
         <v>0.5411764705882354</v>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -485,13 +552,13 @@
         <v>0.8322190755396912</v>
       </c>
       <c r="J2" t="n">
-        <v>5.237174245609362</v>
+        <v>5.237174245609361</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7801773732608226</v>
+        <v>0.7801773732608225</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7797696841910529</v>
+        <v>0.7797696841910531</v>
       </c>
       <c r="M2" t="n">
         <v>0.5493203316759327</v>
@@ -543,13 +610,13 @@
         <v>0.8322190755396912</v>
       </c>
       <c r="J3" t="n">
-        <v>5.237174245609362</v>
+        <v>5.237174245609361</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7801773732608226</v>
+        <v>0.7801773732608225</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7797696841910529</v>
+        <v>0.7797696841910531</v>
       </c>
       <c r="M3" t="n">
         <v>0.5493203316759327</v>
@@ -607,7 +674,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7821229050279329</v>
+        <v>0.7821229050279331</v>
       </c>
       <c r="M4" t="n">
         <v>0.5411764705882354</v>
@@ -629,6 +696,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,89 +50,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -552,13 +485,13 @@
         <v>0.8322190755396912</v>
       </c>
       <c r="J2" t="n">
-        <v>5.237174245609361</v>
+        <v>5.237174245609362</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7801773732608225</v>
+        <v>0.7801773732608226</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7797696841910531</v>
+        <v>0.7797696841910529</v>
       </c>
       <c r="M2" t="n">
         <v>0.5493203316759327</v>
@@ -610,13 +543,13 @@
         <v>0.8322190755396912</v>
       </c>
       <c r="J3" t="n">
-        <v>5.237174245609361</v>
+        <v>5.237174245609362</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7801773732608225</v>
+        <v>0.7801773732608226</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7797696841910531</v>
+        <v>0.7797696841910529</v>
       </c>
       <c r="M3" t="n">
         <v>0.5493203316759327</v>
@@ -674,7 +607,7 @@
         <v>0.7831550493332693</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7821229050279331</v>
+        <v>0.7821229050279329</v>
       </c>
       <c r="M4" t="n">
         <v>0.5411764705882354</v>
@@ -696,6 +629,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>